--- a/data/trans_orig/P36B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA27658-AEEB-441B-82E6-36ED0EA47666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DD3962-DDF6-4A5E-BF42-24FCD2D0AD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E5196D3D-52C1-4B5B-8AE1-CC512A9BF16B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF312721-DAC4-4D1D-8F88-163F8F5CA6B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="312">
-  <si>
-    <t>Población según la frecuencia de consumición de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="299">
+  <si>
+    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,901 +74,862 @@
     <t>17,88%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>19,41%</t>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
   </si>
   <si>
     <t>25,11%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>19,97%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
     <t>16,98%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1383,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E83A2D9-0FAA-4929-A504-F62C5D562556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068918EF-DF2C-4FE5-B0FE-69B79E914539}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1504,7 +1465,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>74456</v>
+        <v>74455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1606,7 +1567,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="7">
-        <v>104604</v>
+        <v>104603</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1645,13 +1606,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>79</v>
@@ -1660,13 +1621,13 @@
         <v>84316</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -1675,10 +1636,10 @@
         <v>67541</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -1759,7 +1720,7 @@
         <v>391</v>
       </c>
       <c r="D9" s="7">
-        <v>416483</v>
+        <v>416482</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -1920,10 +1881,10 @@
         <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>118</v>
@@ -1932,13 +1893,13 @@
         <v>115361</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>251</v>
@@ -1947,19 +1908,19 @@
         <v>258022</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>121</v>
@@ -1968,7 +1929,7 @@
         <v>123028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>88</v>
@@ -2025,7 +1986,7 @@
         <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -2034,13 +1995,13 @@
         <v>109644</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>211</v>
@@ -2049,13 +2010,13 @@
         <v>213390</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,7 +2072,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2123,13 +2084,13 @@
         <v>153782</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -2138,13 +2099,13 @@
         <v>110763</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -2174,10 +2135,10 @@
         <v>131509</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>115</v>
@@ -2243,10 +2204,10 @@
         <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -2255,19 +2216,19 @@
         <v>301859</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>121</v>
@@ -2276,13 +2237,13 @@
         <v>127380</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -2291,13 +2252,13 @@
         <v>131423</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -2309,10 +2270,10 @@
         <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2288,13 @@
         <v>106584</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -2342,10 +2303,10 @@
         <v>140796</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>142</v>
@@ -2357,13 +2318,13 @@
         <v>247380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,7 +2336,7 @@
         <v>631</v>
       </c>
       <c r="D21" s="7">
-        <v>661477</v>
+        <v>661476</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -2419,7 +2380,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2431,13 +2392,13 @@
         <v>166334</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -2446,13 +2407,13 @@
         <v>175208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
@@ -2461,13 +2422,13 @@
         <v>341542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2443,13 @@
         <v>136609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -2497,13 +2458,13 @@
         <v>121702</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>237</v>
@@ -2512,13 +2473,13 @@
         <v>258310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2494,13 @@
         <v>125736</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>112</v>
@@ -2548,13 +2509,13 @@
         <v>122450</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="M24" s="7">
         <v>228</v>
@@ -2563,19 +2524,19 @@
         <v>248185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>88</v>
@@ -2584,13 +2545,13 @@
         <v>96142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -2599,13 +2560,13 @@
         <v>116646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>197</v>
@@ -2614,13 +2575,13 @@
         <v>212788</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2596,13 @@
         <v>114544</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>102</v>
@@ -2650,10 +2611,10 @@
         <v>109315</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>186</v>
@@ -2742,10 +2703,10 @@
         <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>103</v>
@@ -2754,13 +2715,13 @@
         <v>116754</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>219</v>
@@ -2769,13 +2730,13 @@
         <v>247150</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,13 +2751,13 @@
         <v>89491</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>86</v>
@@ -2805,13 +2766,13 @@
         <v>102272</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>168</v>
@@ -2820,13 +2781,13 @@
         <v>191763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2802,13 @@
         <v>101678</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>98</v>
@@ -2856,13 +2817,13 @@
         <v>110273</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>188</v>
@@ -2871,19 +2832,19 @@
         <v>211952</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>72</v>
@@ -2892,13 +2853,13 @@
         <v>82604</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -2907,13 +2868,13 @@
         <v>74265</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -2922,13 +2883,13 @@
         <v>156869</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,13 +2904,13 @@
         <v>69379</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>79</v>
@@ -2961,10 +2922,10 @@
         <v>76</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>139</v>
@@ -2973,13 +2934,13 @@
         <v>160528</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,7 +2996,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3047,13 +3008,13 @@
         <v>191999</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>178</v>
@@ -3062,13 +3023,13 @@
         <v>207840</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>382</v>
@@ -3077,13 +3038,13 @@
         <v>399840</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>149</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3059,13 @@
         <v>104045</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H35" s="7">
         <v>117</v>
@@ -3113,13 +3074,13 @@
         <v>137882</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>229</v>
@@ -3128,13 +3089,13 @@
         <v>241927</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3110,13 @@
         <v>107079</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>134</v>
@@ -3164,13 +3125,13 @@
         <v>161409</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>247</v>
@@ -3179,19 +3140,19 @@
         <v>268488</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>100</v>
@@ -3200,13 +3161,13 @@
         <v>93699</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>113</v>
@@ -3215,13 +3176,13 @@
         <v>136073</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>213</v>
@@ -3230,13 +3191,13 @@
         <v>229772</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3212,13 @@
         <v>90432</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>106</v>
@@ -3266,13 +3227,13 @@
         <v>126479</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="M38" s="7">
         <v>201</v>
@@ -3281,13 +3242,13 @@
         <v>216911</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>160</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3316,13 @@
         <v>824624</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>200</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H40" s="7">
         <v>785</v>
@@ -3370,13 +3331,13 @@
         <v>833861</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M40" s="7">
         <v>1581</v>
@@ -3385,13 +3346,13 @@
         <v>1658485</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3367,13 @@
         <v>635172</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H41" s="7">
         <v>602</v>
@@ -3421,13 +3382,13 @@
         <v>640194</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>99</v>
+        <v>278</v>
       </c>
       <c r="M41" s="7">
         <v>1209</v>
@@ -3436,13 +3397,13 @@
         <v>1275366</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3418,13 @@
         <v>723979</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H42" s="7">
         <v>703</v>
@@ -3472,13 +3433,13 @@
         <v>745461</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="M42" s="7">
         <v>1391</v>
@@ -3487,19 +3448,19 @@
         <v>1469439</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>581</v>
@@ -3508,13 +3469,13 @@
         <v>607170</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H43" s="7">
         <v>607</v>
@@ -3523,13 +3484,13 @@
         <v>641430</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="M43" s="7">
         <v>1188</v>
@@ -3538,13 +3499,13 @@
         <v>1248599</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3559,13 +3520,13 @@
         <v>574669</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="H44" s="7">
         <v>616</v>
@@ -3574,13 +3535,13 @@
         <v>656276</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>308</v>
+        <v>202</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="M44" s="7">
         <v>1150</v>
@@ -3592,10 +3553,10 @@
         <v>11</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,7 +3612,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1DD3962-DDF6-4A5E-BF42-24FCD2D0AD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A21365C6-1F01-421E-9868-C4AF7DABC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BF312721-DAC4-4D1D-8F88-163F8F5CA6B6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4638AF22-4C15-44C3-9D50-5DD38F3F854B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="299">
-  <si>
-    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2015 (Tasa respuesta: 99,24%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="312">
+  <si>
+    <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2016 (Tasa respuesta: 99,24%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>17,88%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,832 +104,871 @@
     <t>15,16%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>13,61%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1344,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068918EF-DF2C-4FE5-B0FE-69B79E914539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F678D9-833D-4741-83C0-8A22390BA08B}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1465,7 +1504,7 @@
         <v>73</v>
       </c>
       <c r="D4" s="7">
-        <v>74455</v>
+        <v>74456</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1567,7 +1606,7 @@
         <v>97</v>
       </c>
       <c r="D6" s="7">
-        <v>104603</v>
+        <v>104604</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1639,10 +1678,10 @@
         <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -1651,19 +1690,19 @@
         <v>151857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>82</v>
@@ -1672,13 +1711,13 @@
         <v>89985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -1687,13 +1726,13 @@
         <v>78892</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>162</v>
@@ -1702,13 +1741,13 @@
         <v>168877</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,16 +1759,16 @@
         <v>391</v>
       </c>
       <c r="D9" s="7">
-        <v>416482</v>
+        <v>416483</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>402</v>
@@ -1738,13 +1777,13 @@
         <v>393996</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>793</v>
@@ -1753,18 +1792,18 @@
         <v>810479</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1776,13 +1815,13 @@
         <v>107658</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -1791,13 +1830,13 @@
         <v>117665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -1806,13 +1845,13 @@
         <v>225323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1866,13 @@
         <v>110395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>105</v>
@@ -1842,13 +1881,13 @@
         <v>100727</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -1857,13 +1896,13 @@
         <v>211122</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1917,13 @@
         <v>142661</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>118</v>
@@ -1893,13 +1932,13 @@
         <v>115361</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>251</v>
@@ -1908,13 +1947,13 @@
         <v>258022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1929,13 +1968,13 @@
         <v>123028</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -1944,13 +1983,13 @@
         <v>115481</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -1959,19 +1998,19 @@
         <v>238509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>100</v>
@@ -1980,13 +2019,13 @@
         <v>103746</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -1995,13 +2034,13 @@
         <v>109644</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>211</v>
@@ -2010,13 +2049,13 @@
         <v>213390</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,13 +2070,13 @@
         <v>587488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>574</v>
@@ -2046,13 +2085,13 @@
         <v>558879</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1138</v>
@@ -2061,18 +2100,18 @@
         <v>1146367</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2084,13 +2123,13 @@
         <v>153782</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -2099,13 +2138,13 @@
         <v>110763</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -2114,13 +2153,13 @@
         <v>264544</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2174,13 @@
         <v>131509</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -2150,13 +2189,13 @@
         <v>112009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>237</v>
@@ -2165,13 +2204,13 @@
         <v>243518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2225,13 @@
         <v>142221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>163</v>
@@ -2201,13 +2240,13 @@
         <v>159638</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -2216,13 +2255,13 @@
         <v>301859</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2276,13 @@
         <v>127380</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -2252,13 +2291,13 @@
         <v>131423</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -2267,19 +2306,19 @@
         <v>258804</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>99</v>
@@ -2288,13 +2327,13 @@
         <v>106584</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -2303,13 +2342,13 @@
         <v>140796</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>237</v>
@@ -2318,13 +2357,13 @@
         <v>247380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,16 +2375,16 @@
         <v>631</v>
       </c>
       <c r="D21" s="7">
-        <v>661476</v>
+        <v>661477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>659</v>
@@ -2354,13 +2393,13 @@
         <v>654629</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>1290</v>
@@ -2369,18 +2408,18 @@
         <v>1316106</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2392,13 +2431,13 @@
         <v>166334</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -2407,13 +2446,13 @@
         <v>175208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
@@ -2422,13 +2461,13 @@
         <v>341542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2482,13 @@
         <v>136609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -2458,13 +2497,13 @@
         <v>121702</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7">
         <v>237</v>
@@ -2473,13 +2512,13 @@
         <v>258310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2533,13 @@
         <v>125736</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>112</v>
@@ -2509,13 +2548,13 @@
         <v>122450</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>228</v>
@@ -2524,13 +2563,13 @@
         <v>248185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,13 +2584,13 @@
         <v>96142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -2560,13 +2599,13 @@
         <v>116646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>197</v>
@@ -2575,19 +2614,19 @@
         <v>212788</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>98</v>
@@ -2596,13 +2635,13 @@
         <v>114544</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>102</v>
@@ -2611,13 +2650,13 @@
         <v>109315</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -2626,13 +2665,13 @@
         <v>223859</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2686,13 @@
         <v>639364</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>599</v>
@@ -2662,13 +2701,13 @@
         <v>645321</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>1175</v>
@@ -2677,18 +2716,18 @@
         <v>1284684</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2739,13 @@
         <v>130396</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>36</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>103</v>
@@ -2715,13 +2754,13 @@
         <v>116754</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" s="7">
         <v>219</v>
@@ -2730,13 +2769,13 @@
         <v>247150</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2790,13 @@
         <v>89491</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H29" s="7">
         <v>86</v>
@@ -2766,13 +2805,13 @@
         <v>102272</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>168</v>
@@ -2781,13 +2820,13 @@
         <v>191763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,10 +2841,10 @@
         <v>101678</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>208</v>
@@ -2874,7 +2913,7 @@
         <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -2883,7 +2922,7 @@
         <v>156869</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>47</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>221</v>
@@ -2895,7 +2934,7 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>60</v>
@@ -2919,7 +2958,7 @@
         <v>91149</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>226</v>
@@ -2937,10 +2976,10 @@
         <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2994,13 @@
         <v>473548</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>431</v>
@@ -2970,13 +3009,13 @@
         <v>494713</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>851</v>
@@ -2985,18 +3024,18 @@
         <v>968262</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3008,13 +3047,13 @@
         <v>191999</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>178</v>
@@ -3023,13 +3062,13 @@
         <v>207840</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>382</v>
@@ -3038,13 +3077,13 @@
         <v>399840</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,10 +3098,10 @@
         <v>104045</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>242</v>
@@ -3092,10 +3131,10 @@
         <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,13 +3149,13 @@
         <v>107079</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>134</v>
@@ -3125,13 +3164,13 @@
         <v>161409</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>247</v>
@@ -3140,13 +3179,13 @@
         <v>268488</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3200,13 @@
         <v>93699</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="H37" s="7">
         <v>113</v>
@@ -3176,13 +3215,13 @@
         <v>136073</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>213</v>
@@ -3191,19 +3230,19 @@
         <v>229772</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>95</v>
@@ -3212,13 +3251,13 @@
         <v>90432</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>106</v>
@@ -3227,13 +3266,13 @@
         <v>126479</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>201</v>
@@ -3242,13 +3281,13 @@
         <v>216911</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>263</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3302,13 @@
         <v>587255</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>648</v>
@@ -3278,13 +3317,13 @@
         <v>769683</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>1272</v>
@@ -3293,13 +3332,13 @@
         <v>1356938</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3355,13 @@
         <v>824624</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>785</v>
@@ -3331,13 +3370,13 @@
         <v>833861</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M40" s="7">
         <v>1581</v>
@@ -3346,13 +3385,13 @@
         <v>1658485</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3406,13 @@
         <v>635172</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>602</v>
@@ -3382,13 +3421,13 @@
         <v>640194</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>1209</v>
@@ -3397,13 +3436,13 @@
         <v>1275366</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,16 +3454,16 @@
         <v>688</v>
       </c>
       <c r="D42" s="7">
-        <v>723979</v>
+        <v>723978</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>703</v>
@@ -3433,13 +3472,13 @@
         <v>745461</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>1391</v>
@@ -3448,13 +3487,13 @@
         <v>1469439</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,16 +3505,16 @@
         <v>581</v>
       </c>
       <c r="D43" s="7">
-        <v>607170</v>
+        <v>607169</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>607</v>
@@ -3484,13 +3523,13 @@
         <v>641430</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>157</v>
+        <v>300</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M43" s="7">
         <v>1188</v>
@@ -3499,19 +3538,19 @@
         <v>1248599</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>292</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>534</v>
@@ -3520,13 +3559,13 @@
         <v>574669</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>205</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>616</v>
@@ -3535,13 +3574,13 @@
         <v>656276</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>1150</v>
@@ -3553,10 +3592,10 @@
         <v>11</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,16 +3607,16 @@
         <v>3206</v>
       </c>
       <c r="D45" s="7">
-        <v>3365614</v>
+        <v>3365613</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>3313</v>
@@ -3586,13 +3625,13 @@
         <v>3517222</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>6519</v>
@@ -3601,18 +3640,18 @@
         <v>6882835</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A21365C6-1F01-421E-9868-C4AF7DABC7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6919E64-486C-4493-90B8-D83E9A4155E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4638AF22-4C15-44C3-9D50-5DD38F3F854B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D022AB2-BCD9-4DBB-8718-FF2871A2F722}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>17,88%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>22,22%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,871 +104,871 @@
     <t>15,16%</t>
   </si>
   <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>13,45%</t>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1383,7 +1383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F678D9-833D-4741-83C0-8A22390BA08B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C1DF0B-A31E-4198-9F3B-22C6E8DE5BDD}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1645,13 +1645,13 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>79</v>
@@ -1660,13 +1660,13 @@
         <v>84316</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>68</v>
@@ -1675,13 +1675,13 @@
         <v>67541</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>147</v>
@@ -1690,19 +1690,19 @@
         <v>151857</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>82</v>
@@ -1711,13 +1711,13 @@
         <v>89985</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>80</v>
@@ -1726,13 +1726,13 @@
         <v>78892</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>162</v>
@@ -1741,13 +1741,13 @@
         <v>168877</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1762,13 +1762,13 @@
         <v>416483</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>402</v>
@@ -1777,13 +1777,13 @@
         <v>393996</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>793</v>
@@ -1792,18 +1792,18 @@
         <v>810479</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1815,13 +1815,13 @@
         <v>107658</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>119</v>
@@ -1830,13 +1830,13 @@
         <v>117665</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>223</v>
@@ -1845,13 +1845,13 @@
         <v>225323</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1866,13 +1866,13 @@
         <v>110395</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>105</v>
@@ -1881,13 +1881,13 @@
         <v>100727</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>211</v>
@@ -1896,13 +1896,13 @@
         <v>211122</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,13 +1917,13 @@
         <v>142661</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>118</v>
@@ -1932,10 +1932,10 @@
         <v>115361</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>84</v>
@@ -1959,7 +1959,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
         <v>121</v>
@@ -1968,13 +1968,13 @@
         <v>123028</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -1983,13 +1983,13 @@
         <v>115481</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -1998,19 +1998,19 @@
         <v>238509</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>100</v>
@@ -2019,13 +2019,13 @@
         <v>103746</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>111</v>
@@ -2034,13 +2034,13 @@
         <v>109644</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>211</v>
@@ -2049,13 +2049,13 @@
         <v>213390</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,13 +2070,13 @@
         <v>587488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>574</v>
@@ -2085,13 +2085,13 @@
         <v>558879</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1138</v>
@@ -2100,18 +2100,18 @@
         <v>1146367</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2123,13 +2123,13 @@
         <v>153782</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -2138,13 +2138,13 @@
         <v>110763</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -2153,13 +2153,13 @@
         <v>264544</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,13 +2174,13 @@
         <v>131509</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -2189,13 +2189,13 @@
         <v>112009</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>237</v>
@@ -2204,13 +2204,13 @@
         <v>243518</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2225,13 @@
         <v>142221</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>163</v>
@@ -2240,13 +2240,13 @@
         <v>159638</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>302</v>
@@ -2255,19 +2255,19 @@
         <v>301859</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
         <v>121</v>
@@ -2276,13 +2276,13 @@
         <v>127380</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>131</v>
@@ -2291,13 +2291,13 @@
         <v>131423</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -2306,19 +2306,19 @@
         <v>258804</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>99</v>
@@ -2327,13 +2327,13 @@
         <v>106584</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -2342,13 +2342,13 @@
         <v>140796</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>237</v>
@@ -2357,13 +2357,13 @@
         <v>247380</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2378,13 @@
         <v>661477</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>659</v>
@@ -2393,13 +2393,13 @@
         <v>654629</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>1290</v>
@@ -2408,18 +2408,18 @@
         <v>1316106</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2431,13 +2431,13 @@
         <v>166334</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -2446,13 +2446,13 @@
         <v>175208</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>313</v>
@@ -2461,13 +2461,13 @@
         <v>341542</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2482,13 @@
         <v>136609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -2497,13 +2497,13 @@
         <v>121702</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>237</v>
@@ -2512,13 +2512,13 @@
         <v>258310</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2533,13 @@
         <v>125736</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>112</v>
@@ -2548,13 +2548,13 @@
         <v>122450</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>228</v>
@@ -2563,19 +2563,19 @@
         <v>248185</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
         <v>88</v>
@@ -2584,13 +2584,13 @@
         <v>96142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>109</v>
@@ -2599,13 +2599,13 @@
         <v>116646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>197</v>
@@ -2614,19 +2614,19 @@
         <v>212788</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>98</v>
@@ -2635,13 +2635,13 @@
         <v>114544</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>102</v>
@@ -2650,13 +2650,13 @@
         <v>109315</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>200</v>
@@ -2665,13 +2665,13 @@
         <v>223859</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,13 +2686,13 @@
         <v>639364</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>599</v>
@@ -2701,13 +2701,13 @@
         <v>645321</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>1175</v>
@@ -2716,18 +2716,18 @@
         <v>1284684</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2739,13 +2739,13 @@
         <v>130396</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>103</v>
@@ -2754,10 +2754,10 @@
         <v>116754</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>196</v>
@@ -2808,10 +2808,10 @@
         <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>168</v>
@@ -2820,13 +2820,13 @@
         <v>191763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,13 +2841,13 @@
         <v>101678</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>98</v>
@@ -2856,13 +2856,13 @@
         <v>110273</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>188</v>
@@ -2871,19 +2871,19 @@
         <v>211952</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
         <v>72</v>
@@ -2892,13 +2892,13 @@
         <v>82604</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>65</v>
@@ -2907,13 +2907,13 @@
         <v>74265</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -2922,19 +2922,19 @@
         <v>156869</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>60</v>
@@ -2943,13 +2943,13 @@
         <v>69379</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>79</v>
@@ -2958,13 +2958,13 @@
         <v>91149</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>139</v>
@@ -2973,13 +2973,13 @@
         <v>160528</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2994,13 @@
         <v>473548</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>431</v>
@@ -3009,13 +3009,13 @@
         <v>494713</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>851</v>
@@ -3024,18 +3024,18 @@
         <v>968262</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3047,13 +3047,13 @@
         <v>191999</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>178</v>
@@ -3062,13 +3062,13 @@
         <v>207840</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>382</v>
@@ -3077,13 +3077,13 @@
         <v>399840</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3098,13 @@
         <v>104045</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="H35" s="7">
         <v>117</v>
@@ -3113,13 +3113,13 @@
         <v>137882</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>229</v>
@@ -3128,13 +3128,13 @@
         <v>241927</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>246</v>
+        <v>51</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3149,13 @@
         <v>107079</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>134</v>
@@ -3164,13 +3164,13 @@
         <v>161409</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>247</v>
@@ -3179,19 +3179,19 @@
         <v>268488</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="7">
         <v>100</v>
@@ -3200,13 +3200,13 @@
         <v>93699</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H37" s="7">
         <v>113</v>
@@ -3242,7 +3242,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>95</v>
@@ -3251,13 +3251,13 @@
         <v>90432</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>106</v>
@@ -3266,13 +3266,13 @@
         <v>126479</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>169</v>
       </c>
       <c r="M38" s="7">
         <v>201</v>
@@ -3281,13 +3281,13 @@
         <v>216911</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3302,13 @@
         <v>587255</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>648</v>
@@ -3317,13 +3317,13 @@
         <v>769683</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>1272</v>
@@ -3332,13 +3332,13 @@
         <v>1356938</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3355,13 +3355,13 @@
         <v>824624</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>785</v>
@@ -3370,13 +3370,13 @@
         <v>833861</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M40" s="7">
         <v>1581</v>
@@ -3385,7 +3385,7 @@
         <v>1658485</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>280</v>
@@ -3427,7 +3427,7 @@
         <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="M41" s="7">
         <v>1209</v>
@@ -3436,13 +3436,13 @@
         <v>1275366</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,16 +3454,16 @@
         <v>688</v>
       </c>
       <c r="D42" s="7">
-        <v>723978</v>
+        <v>723979</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H42" s="7">
         <v>703</v>
@@ -3472,13 +3472,13 @@
         <v>745461</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>1391</v>
@@ -3487,34 +3487,34 @@
         <v>1469439</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="7">
         <v>581</v>
       </c>
       <c r="D43" s="7">
-        <v>607169</v>
+        <v>607170</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H43" s="7">
         <v>607</v>
@@ -3523,13 +3523,13 @@
         <v>641430</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M43" s="7">
         <v>1188</v>
@@ -3538,19 +3538,19 @@
         <v>1248599</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>534</v>
@@ -3580,7 +3580,7 @@
         <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>309</v>
+        <v>118</v>
       </c>
       <c r="M44" s="7">
         <v>1150</v>
@@ -3592,7 +3592,7 @@
         <v>11</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>310</v>
@@ -3607,16 +3607,16 @@
         <v>3206</v>
       </c>
       <c r="D45" s="7">
-        <v>3365613</v>
+        <v>3365614</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>3313</v>
@@ -3625,13 +3625,13 @@
         <v>3517222</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>6519</v>
@@ -3640,13 +3640,13 @@
         <v>6882835</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6919E64-486C-4493-90B8-D83E9A4155E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A16B015B-EB1A-4A69-9B62-7B6BF0CC8005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D022AB2-BCD9-4DBB-8718-FF2871A2F722}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0640A348-E681-4772-978C-6DBAB8E2C17A}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="355">
   <si>
     <t>Población según la frecuencia de consumo de zumo natural de frutas o verduras en 2016 (Tasa respuesta: 99,24%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -218,7 +218,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>18,33%</t>
@@ -353,7 +353,7 @@
     <t>20,98%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -473,7 +473,7 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>26,02%</t>
@@ -608,7 +608,7 @@
     <t>19,75%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>27,54%</t>
@@ -737,124 +737,256 @@
     <t>19,29%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
   <si>
     <t>17,91%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
   </si>
   <si>
     <t>24,5%</t>
@@ -867,9 +999,6 @@
   </si>
   <si>
     <t>23,71%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
   </si>
   <si>
     <t>25,04%</t>
@@ -1383,8 +1512,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C1DF0B-A31E-4198-9F3B-22C6E8DE5BDD}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA345E0-6D47-467E-B0DA-0708D71D97F6}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2428,7 +2557,7 @@
         <v>150</v>
       </c>
       <c r="D22" s="7">
-        <v>166334</v>
+        <v>166333</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>146</v>
@@ -2530,7 +2659,7 @@
         <v>116</v>
       </c>
       <c r="D24" s="7">
-        <v>125736</v>
+        <v>125735</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>163</v>
@@ -2683,7 +2812,7 @@
         <v>576</v>
       </c>
       <c r="D27" s="7">
-        <v>639364</v>
+        <v>639363</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -3041,10 +3170,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="D34" s="7">
-        <v>191999</v>
+        <v>103892</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>234</v>
@@ -3056,31 +3185,31 @@
         <v>236</v>
       </c>
       <c r="H34" s="7">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="I34" s="7">
-        <v>207840</v>
+        <v>98080</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>195</v>
+      </c>
+      <c r="N34" s="7">
+        <v>201972</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="M34" s="7">
-        <v>382</v>
-      </c>
-      <c r="N34" s="7">
-        <v>399840</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>241</v>
@@ -3092,10 +3221,10 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="D35" s="7">
-        <v>104045</v>
+        <v>63352</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>242</v>
@@ -3104,37 +3233,37 @@
         <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="I35" s="7">
-        <v>137882</v>
+        <v>70265</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="N35" s="7">
-        <v>241927</v>
+        <v>133617</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,49 +3272,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="D36" s="7">
-        <v>107079</v>
+        <v>58859</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="I36" s="7">
-        <v>161409</v>
+        <v>80355</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
-        <v>247</v>
+        <v>130</v>
       </c>
       <c r="N36" s="7">
-        <v>268488</v>
+        <v>139215</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,10 +3323,10 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D37" s="7">
-        <v>93699</v>
+        <v>56243</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>257</v>
@@ -3209,10 +3338,10 @@
         <v>259</v>
       </c>
       <c r="H37" s="7">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="I37" s="7">
-        <v>136073</v>
+        <v>58693</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>260</v>
@@ -3224,10 +3353,10 @@
         <v>262</v>
       </c>
       <c r="M37" s="7">
-        <v>213</v>
+        <v>111</v>
       </c>
       <c r="N37" s="7">
-        <v>229772</v>
+        <v>114936</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>263</v>
@@ -3245,49 +3374,49 @@
         <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="D38" s="7">
-        <v>90432</v>
+        <v>50360</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I38" s="7">
-        <v>126479</v>
+        <v>67082</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="N38" s="7">
-        <v>216911</v>
+        <v>117442</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>624</v>
+        <v>324</v>
       </c>
       <c r="D39" s="7">
-        <v>587255</v>
+        <v>332706</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -3311,10 +3440,10 @@
         <v>59</v>
       </c>
       <c r="H39" s="7">
-        <v>648</v>
+        <v>351</v>
       </c>
       <c r="I39" s="7">
-        <v>769683</v>
+        <v>374476</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -3326,10 +3455,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>1272</v>
+        <v>675</v>
       </c>
       <c r="N39" s="7">
-        <v>1356938</v>
+        <v>707182</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -3343,55 +3472,55 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>275</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>796</v>
+        <v>104</v>
       </c>
       <c r="D40" s="7">
-        <v>824624</v>
+        <v>88107</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
-        <v>785</v>
+        <v>83</v>
       </c>
       <c r="I40" s="7">
-        <v>833861</v>
+        <v>109761</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
-        <v>1581</v>
+        <v>187</v>
       </c>
       <c r="N40" s="7">
-        <v>1658485</v>
+        <v>197868</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,49 +3529,49 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>607</v>
+        <v>49</v>
       </c>
       <c r="D41" s="7">
-        <v>635172</v>
+        <v>40694</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
-        <v>602</v>
+        <v>52</v>
       </c>
       <c r="I41" s="7">
-        <v>640194</v>
+        <v>67616</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>116</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
-        <v>1209</v>
+        <v>101</v>
       </c>
       <c r="N41" s="7">
-        <v>1275366</v>
+        <v>108310</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>83</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,49 +3580,49 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>688</v>
+        <v>57</v>
       </c>
       <c r="D42" s="7">
-        <v>723979</v>
+        <v>48220</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
-        <v>703</v>
+        <v>60</v>
       </c>
       <c r="I42" s="7">
-        <v>745461</v>
+        <v>81053</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M42" s="7">
-        <v>1391</v>
+        <v>117</v>
       </c>
       <c r="N42" s="7">
-        <v>1469439</v>
+        <v>129273</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,49 +3631,49 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>581</v>
+        <v>44</v>
       </c>
       <c r="D43" s="7">
-        <v>607170</v>
+        <v>37456</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="H43" s="7">
-        <v>607</v>
+        <v>58</v>
       </c>
       <c r="I43" s="7">
-        <v>641430</v>
+        <v>77380</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M43" s="7">
-        <v>1188</v>
+        <v>102</v>
       </c>
       <c r="N43" s="7">
-        <v>1248599</v>
+        <v>114836</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,49 +3682,49 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>534</v>
+        <v>46</v>
       </c>
       <c r="D44" s="7">
-        <v>574669</v>
+        <v>40072</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H44" s="7">
-        <v>616</v>
+        <v>44</v>
       </c>
       <c r="I44" s="7">
-        <v>656276</v>
+        <v>59397</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="M44" s="7">
-        <v>1150</v>
+        <v>90</v>
       </c>
       <c r="N44" s="7">
-        <v>1230945</v>
+        <v>99469</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,63 +3733,372 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>300</v>
+      </c>
+      <c r="D45" s="7">
+        <v>254549</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>297</v>
+      </c>
+      <c r="I45" s="7">
+        <v>395207</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45" s="7">
+        <v>597</v>
+      </c>
+      <c r="N45" s="7">
+        <v>649756</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>796</v>
+      </c>
+      <c r="D46" s="7">
+        <v>824624</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H46" s="7">
+        <v>785</v>
+      </c>
+      <c r="I46" s="7">
+        <v>833861</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="M46" s="7">
+        <v>1581</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1658485</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>607</v>
+      </c>
+      <c r="D47" s="7">
+        <v>635172</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" s="7">
+        <v>602</v>
+      </c>
+      <c r="I47" s="7">
+        <v>640194</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M47" s="7">
+        <v>1209</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1275366</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>688</v>
+      </c>
+      <c r="D48" s="7">
+        <v>723978</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H48" s="7">
+        <v>703</v>
+      </c>
+      <c r="I48" s="7">
+        <v>745461</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M48" s="7">
+        <v>1391</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1469439</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>581</v>
+      </c>
+      <c r="D49" s="7">
+        <v>607169</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H49" s="7">
+        <v>607</v>
+      </c>
+      <c r="I49" s="7">
+        <v>641430</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="M49" s="7">
+        <v>1188</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1248599</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>534</v>
+      </c>
+      <c r="D50" s="7">
+        <v>574669</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H50" s="7">
+        <v>616</v>
+      </c>
+      <c r="I50" s="7">
+        <v>656276</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M50" s="7">
+        <v>1150</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1230945</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>3206</v>
       </c>
-      <c r="D45" s="7">
-        <v>3365614</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>3365613</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>3313</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>3517222</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>6519</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>6882835</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>311</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
